--- a/docs/0.1.0/StructureDefinition-alvearie-organization.xlsx
+++ b/docs/0.1.0/StructureDefinition-alvearie-organization.xlsx
@@ -190,7 +190,7 @@
     <t>Organization.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {http://alvearie.github.io/alvearie-fhir-ig/StructureDefinition/process-meta}
+    <t xml:space="preserve">Meta {http://alvearie.io/fhir/StructureDefinition/process-meta}
 </t>
   </si>
   <si>
@@ -478,7 +478,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://alvearie.github.io/alvearie-fhir-ig/ValueSet/identifier-type</t>
+    <t>http://alvearie.io/fhir/ValueSet/identifier-type</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -605,7 +605,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://alvearie.github.io/alvearie-fhir-ig/CodeSystem/identifier-type"/&gt;
+    &lt;system value="http://alvearie.io/fhir/CodeSystem/identifier-type"/&gt;
     &lt;code value="SSRI"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1318,7 +1318,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="59.046875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.4921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
